--- a/data_year/zb/价格指数/居民消费价格分类指数(上年=100)(-2015)/交通和通信类居民消费价格指数(上年=100).xlsx
+++ b/data_year/zb/价格指数/居民消费价格分类指数(上年=100)(-2015)/交通和通信类居民消费价格指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,580 +488,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.8</v>
+        <v>99.64886</v>
       </c>
       <c r="C2" t="n">
-        <v>95.90000000000001</v>
+        <v>98.66955</v>
       </c>
       <c r="D2" t="n">
-        <v>93.8</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+        <v>101.67216</v>
+      </c>
+      <c r="E2" t="n">
+        <v>101.671</v>
+      </c>
+      <c r="F2" t="n">
+        <v>100.66998</v>
+      </c>
+      <c r="G2" t="n">
+        <v>111.47997</v>
+      </c>
+      <c r="H2" t="n">
+        <v>101.67363</v>
+      </c>
       <c r="I2" t="n">
-        <v>89.90000000000001</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>86.46133</v>
+      </c>
+      <c r="J2" t="n">
+        <v>99.68288</v>
+      </c>
+      <c r="K2" t="n">
+        <v>97.28782</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.0014</v>
+        <v>100.50242129</v>
       </c>
       <c r="C3" t="n">
-        <v>96.4438</v>
+        <v>99.02646554</v>
       </c>
       <c r="D3" t="n">
-        <v>101.0069</v>
+        <v>102.63936669</v>
       </c>
       <c r="E3" t="n">
-        <v>103.9809</v>
+        <v>102.72771657</v>
       </c>
       <c r="F3" t="n">
-        <v>105.8162</v>
+        <v>101.74622562</v>
       </c>
       <c r="G3" t="n">
-        <v>99.024</v>
+        <v>111.6593145</v>
       </c>
       <c r="H3" t="n">
-        <v>100.4067</v>
+        <v>103.81471568</v>
       </c>
       <c r="I3" t="n">
-        <v>80.51909999999999</v>
+        <v>87.04604175999999</v>
       </c>
       <c r="J3" t="n">
-        <v>101.0508</v>
+        <v>99.76568899999999</v>
       </c>
       <c r="K3" t="n">
-        <v>96.8395</v>
+        <v>97.50691942</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.09269999999999</v>
+        <v>99.88183007000001</v>
       </c>
       <c r="C4" t="n">
-        <v>94.9928</v>
+        <v>99.2057681</v>
       </c>
       <c r="D4" t="n">
-        <v>99.0712</v>
+        <v>101.16058562</v>
       </c>
       <c r="E4" t="n">
-        <v>101.7839</v>
+        <v>101.63408707</v>
       </c>
       <c r="F4" t="n">
-        <v>101.9169</v>
+        <v>101.41461574</v>
       </c>
       <c r="G4" t="n">
-        <v>98.53830000000001</v>
+        <v>102.86148016</v>
       </c>
       <c r="H4" t="n">
-        <v>99.9776</v>
+        <v>104.51088803</v>
       </c>
       <c r="I4" t="n">
-        <v>83.5381</v>
+        <v>87.76185042</v>
       </c>
       <c r="J4" t="n">
-        <v>100.2725</v>
+        <v>99.92279507000001</v>
       </c>
       <c r="K4" t="n">
-        <v>97.1564</v>
+        <v>97.99493132000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>97.7976</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>95.8661</v>
+        <v>98.80582496</v>
       </c>
       <c r="D5" t="n">
-        <v>99.50790000000001</v>
+        <v>100.2</v>
       </c>
       <c r="E5" t="n">
-        <v>101.4324</v>
+        <v>101.02857843</v>
       </c>
       <c r="F5" t="n">
-        <v>100.6208</v>
+        <v>100.87762077</v>
       </c>
       <c r="G5" t="n">
-        <v>108.2751</v>
+        <v>99.35134474</v>
       </c>
       <c r="H5" t="n">
-        <v>98.8647</v>
+        <v>104.02517636</v>
       </c>
       <c r="I5" t="n">
-        <v>82.1221</v>
+        <v>91.81912351</v>
       </c>
       <c r="J5" t="n">
-        <v>99.3925</v>
+        <v>99.91080336</v>
       </c>
       <c r="K5" t="n">
-        <v>96.12439999999999</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.521</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>96.45229999999999</v>
+        <v>99.17005582</v>
       </c>
       <c r="D6" t="n">
-        <v>100.3613</v>
+        <v>100.2</v>
       </c>
       <c r="E6" t="n">
-        <v>102.5092</v>
+        <v>101.41079361</v>
       </c>
       <c r="F6" t="n">
-        <v>101.0143</v>
+        <v>101.24854012</v>
       </c>
       <c r="G6" t="n">
-        <v>107.7155</v>
+        <v>98.71888042</v>
       </c>
       <c r="H6" t="n">
-        <v>101.0353</v>
+        <v>102.9648414</v>
       </c>
       <c r="I6" t="n">
-        <v>84.27509999999999</v>
+        <v>95.71281365999999</v>
       </c>
       <c r="J6" t="n">
-        <v>99.82250000000001</v>
+        <v>99.9384821</v>
       </c>
       <c r="K6" t="n">
-        <v>96.7923</v>
+        <v>99.40000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.0111</v>
+        <v>98.29541</v>
       </c>
       <c r="C7" t="n">
-        <v>97.2544</v>
+        <v>98.29622000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>101.4644</v>
+        <v>97.53389</v>
       </c>
       <c r="E7" t="n">
-        <v>103.2649</v>
+        <v>100.27782</v>
       </c>
       <c r="F7" t="n">
-        <v>102.1816</v>
+        <v>103.99256</v>
       </c>
       <c r="G7" t="n">
-        <v>110.3454</v>
+        <v>84.19441999999999</v>
       </c>
       <c r="H7" t="n">
-        <v>101.9573</v>
+        <v>102.72399</v>
       </c>
       <c r="I7" t="n">
-        <v>84.0887</v>
+        <v>96.92046000000001</v>
       </c>
       <c r="J7" t="n">
-        <v>99.6473</v>
+        <v>99.8546</v>
       </c>
       <c r="K7" t="n">
-        <v>96.6232</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2006年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>99.90508</v>
-      </c>
-      <c r="C8" t="n">
-        <v>97.80607999999999</v>
-      </c>
-      <c r="D8" t="n">
-        <v>103.22925</v>
-      </c>
-      <c r="E8" t="n">
-        <v>105.61769</v>
-      </c>
-      <c r="F8" t="n">
-        <v>104.79348</v>
-      </c>
-      <c r="G8" t="n">
-        <v>112.7706</v>
-      </c>
-      <c r="H8" t="n">
-        <v>102.38078</v>
-      </c>
-      <c r="I8" t="n">
-        <v>82.21035000000001</v>
-      </c>
-      <c r="J8" t="n">
-        <v>99.97484</v>
-      </c>
-      <c r="K8" t="n">
-        <v>96.37632000000001</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2007年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>99.07474999999999</v>
-      </c>
-      <c r="C9" t="n">
-        <v>97.74767</v>
-      </c>
-      <c r="D9" t="n">
-        <v>100.81928</v>
-      </c>
-      <c r="E9" t="n">
-        <v>102.9889</v>
-      </c>
-      <c r="F9" t="n">
-        <v>101.31741</v>
-      </c>
-      <c r="G9" t="n">
-        <v>103.53616</v>
-      </c>
-      <c r="H9" t="n">
-        <v>102.43634</v>
-      </c>
-      <c r="I9" t="n">
-        <v>81.75699</v>
-      </c>
-      <c r="J9" t="n">
-        <v>100.60875</v>
-      </c>
-      <c r="K9" t="n">
-        <v>97.12932000000001</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>99.07531</v>
-      </c>
-      <c r="C10" t="n">
-        <v>98.37531</v>
-      </c>
-      <c r="D10" t="n">
-        <v>102.15781</v>
-      </c>
-      <c r="E10" t="n">
-        <v>104.30414</v>
-      </c>
-      <c r="F10" t="n">
-        <v>100.54164</v>
-      </c>
-      <c r="G10" t="n">
-        <v>113.5137</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100.7825</v>
-      </c>
-      <c r="I10" t="n">
-        <v>80.73993</v>
-      </c>
-      <c r="J10" t="n">
-        <v>98.82554</v>
-      </c>
-      <c r="K10" t="n">
-        <v>95.56386000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>97.55446999999999</v>
-      </c>
-      <c r="C11" t="n">
-        <v>98.01674</v>
-      </c>
-      <c r="D11" t="n">
-        <v>98.63866</v>
-      </c>
-      <c r="E11" t="n">
-        <v>100.54598</v>
-      </c>
-      <c r="F11" t="n">
-        <v>100.60708</v>
-      </c>
-      <c r="G11" t="n">
-        <v>92.80658</v>
-      </c>
-      <c r="H11" t="n">
-        <v>101.13399</v>
-      </c>
-      <c r="I11" t="n">
-        <v>81.73332000000001</v>
-      </c>
-      <c r="J11" t="n">
-        <v>99.50569</v>
-      </c>
-      <c r="K11" t="n">
-        <v>96.26804</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>99.64886</v>
-      </c>
-      <c r="C12" t="n">
-        <v>98.66955</v>
-      </c>
-      <c r="D12" t="n">
-        <v>101.67216</v>
-      </c>
-      <c r="E12" t="n">
-        <v>101.671</v>
-      </c>
-      <c r="F12" t="n">
-        <v>100.66998</v>
-      </c>
-      <c r="G12" t="n">
-        <v>111.47997</v>
-      </c>
-      <c r="H12" t="n">
-        <v>101.67363</v>
-      </c>
-      <c r="I12" t="n">
-        <v>86.46133</v>
-      </c>
-      <c r="J12" t="n">
-        <v>99.68288</v>
-      </c>
-      <c r="K12" t="n">
-        <v>97.28782</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>100.50242129</v>
-      </c>
-      <c r="C13" t="n">
-        <v>99.02646554</v>
-      </c>
-      <c r="D13" t="n">
-        <v>102.63936669</v>
-      </c>
-      <c r="E13" t="n">
-        <v>102.72771657</v>
-      </c>
-      <c r="F13" t="n">
-        <v>101.74622562</v>
-      </c>
-      <c r="G13" t="n">
-        <v>111.6593145</v>
-      </c>
-      <c r="H13" t="n">
-        <v>103.81471568</v>
-      </c>
-      <c r="I13" t="n">
-        <v>87.04604175999999</v>
-      </c>
-      <c r="J13" t="n">
-        <v>99.76568899999999</v>
-      </c>
-      <c r="K13" t="n">
-        <v>97.50691942</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>99.88183007000001</v>
-      </c>
-      <c r="C14" t="n">
-        <v>99.2057681</v>
-      </c>
-      <c r="D14" t="n">
-        <v>101.16058562</v>
-      </c>
-      <c r="E14" t="n">
-        <v>101.63408707</v>
-      </c>
-      <c r="F14" t="n">
-        <v>101.41461574</v>
-      </c>
-      <c r="G14" t="n">
-        <v>102.86148016</v>
-      </c>
-      <c r="H14" t="n">
-        <v>104.51088803</v>
-      </c>
-      <c r="I14" t="n">
-        <v>87.76185042</v>
-      </c>
-      <c r="J14" t="n">
-        <v>99.92279507000001</v>
-      </c>
-      <c r="K14" t="n">
-        <v>97.99493132000001</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>99.59999999999999</v>
-      </c>
-      <c r="C15" t="n">
-        <v>98.80582496</v>
-      </c>
-      <c r="D15" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>101.02857843</v>
-      </c>
-      <c r="F15" t="n">
-        <v>100.87762077</v>
-      </c>
-      <c r="G15" t="n">
-        <v>99.35134474</v>
-      </c>
-      <c r="H15" t="n">
-        <v>104.02517636</v>
-      </c>
-      <c r="I15" t="n">
-        <v>91.81912351</v>
-      </c>
-      <c r="J15" t="n">
-        <v>99.91080336</v>
-      </c>
-      <c r="K15" t="n">
-        <v>98.8</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>99.90000000000001</v>
-      </c>
-      <c r="C16" t="n">
-        <v>99.17005582</v>
-      </c>
-      <c r="D16" t="n">
-        <v>100.2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>101.41079361</v>
-      </c>
-      <c r="F16" t="n">
-        <v>101.24854012</v>
-      </c>
-      <c r="G16" t="n">
-        <v>98.71888042</v>
-      </c>
-      <c r="H16" t="n">
-        <v>102.9648414</v>
-      </c>
-      <c r="I16" t="n">
-        <v>95.71281365999999</v>
-      </c>
-      <c r="J16" t="n">
-        <v>99.9384821</v>
-      </c>
-      <c r="K16" t="n">
-        <v>99.40000000000001</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>98.29541</v>
-      </c>
-      <c r="C17" t="n">
-        <v>98.29622000000001</v>
-      </c>
-      <c r="D17" t="n">
-        <v>97.53389</v>
-      </c>
-      <c r="E17" t="n">
-        <v>100.27782</v>
-      </c>
-      <c r="F17" t="n">
-        <v>103.99256</v>
-      </c>
-      <c r="G17" t="n">
-        <v>84.19441999999999</v>
-      </c>
-      <c r="H17" t="n">
-        <v>102.72399</v>
-      </c>
-      <c r="I17" t="n">
-        <v>96.92046000000001</v>
-      </c>
-      <c r="J17" t="n">
-        <v>99.8546</v>
-      </c>
-      <c r="K17" t="n">
         <v>99.4816</v>
       </c>
     </row>
